--- a/Excel reader/B8.xlsx
+++ b/Excel reader/B8.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B229</t>
+          <t>181b229</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B233</t>
+          <t>181b233</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B246</t>
+          <t>181b246</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">181B245 </t>
+          <t xml:space="preserve">181b245 </t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -518,7 +518,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181B238</t>
+          <t>181b238</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -556,7 +556,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B242</t>
+          <t>181b242</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -574,7 +574,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B255</t>
+          <t>181b255</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -610,7 +610,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B236</t>
+          <t>181b236</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -628,7 +628,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181B261</t>
+          <t>181b261</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -664,7 +664,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B258</t>
+          <t>181b258</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -684,7 +684,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181B254</t>
+          <t>181b254</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -702,7 +702,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B232</t>
+          <t>181b232</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -720,7 +720,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B252</t>
+          <t>181b252</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -738,7 +738,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B231</t>
+          <t>181b231</t>
         </is>
       </c>
       <c r="B18" t="n">
